--- a/Commsights.MVC/wwwroot/Download/Excel/AndiSource.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/AndiSource.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>AUG 26 (1)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -70,26 +67,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -148,18 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -456,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -467,59 +448,51 @@
     <col min="1" max="15" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="10.5"/>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="10.5"/>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="10.5"/>
-    <row r="5" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Commsights.MVC/wwwroot/Download/Excel/AndiSource.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/AndiSource.xlsx
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,6 +495,25 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
